--- a/va_facility_data_2025-02-20/Kingman VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Kingman%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Kingman VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Kingman%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb192f103d36b42c393cffa9b31f8fdaa"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2ee57e996b7144269e4eb250763304ee"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Reca23d1820cc49f7841bce7309e45168"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re3e2ec84c9eb4783ac604f6b3349b324"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R13675843755442f48352ced482d23ead"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1e905cd4f76a442e92d8e1ca1901f3de"/>
   </x:sheets>
 </x:workbook>
 </file>
